--- a/version.xlsx
+++ b/version.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCE385-3CEA-4D30-B2F8-5C55751FA5CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A632B-4891-41BB-9546-7DA5917DDE66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="864" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190412" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,65 +150,118 @@
     <t>spring.datasource.username=root</t>
   </si>
   <si>
+    <t>spring.datasource.url=jdbc:mysql://localhost:3306/telcomksh?serverTimezone=GMT&amp;useUnicode=true&amp;characterEncoding=utf-8&amp;useSSL=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/telecom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java -jar ****</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telcomksh.sql</t>
+  </si>
+  <si>
+    <t>telecomback\src\main\resources\db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecomback\src\main\resources\application.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecomfront\config\prod.env.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_API: '"http://192.168.1.106:8080"'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.coding.net/myhomeCode/telecomfront.git   master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://git.coding.net/myhomeCode/telecomback.git  public</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbroot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webroot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backuri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fronturi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>spring.datasource.password=root</t>
-  </si>
-  <si>
-    <t>spring.datasource.url=jdbc:mysql://localhost:3306/telcomksh?serverTimezone=GMT&amp;useUnicode=true&amp;characterEncoding=utf-8&amp;useSSL=false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/local/telecom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java -jar ****</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telcomksh.sql</t>
-  </si>
-  <si>
-    <t>telecomback\src\main\resources\db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecomback\src\main\resources\application.properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecomfront\config\prod.env.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASE_API: '"http://192.168.1.106:8080"'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://git.coding.net/myhomeCode/telecomfront.git   master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://git.coding.net/myhomeCode/telecomback.git  public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -261,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,12 +374,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +400,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,7 +425,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,17 +773,17 @@
       <selection activeCell="A29" sqref="A29:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="48.21875" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +797,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -742,92 +807,92 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -836,159 +901,159 @@
       <c r="D12" s="2">
         <v>0.01</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+    <row r="13" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>0.01</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>0.01</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>0.01</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2">
         <v>0.01</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2">
         <v>0.01</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>0.01</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>0.01</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>0.01</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0.01</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>0.01</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>0.01</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>0.01</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>0.01</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>0.01</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>0.01</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1005,110 +1070,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="134.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
-        <v>48</v>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
       <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
       <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
       <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>43</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1126,7 +1239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,7 +1252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,7 +1265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/version.xlsx
+++ b/version.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACCE385-3CEA-4D30-B2F8-5C55751FA5CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5007AC9-129A-4246-BF9A-8390CD16B626}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="864" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2265" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190412" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,9 +150,6 @@
     <t>spring.datasource.username=root</t>
   </si>
   <si>
-    <t>spring.datasource.password=root</t>
-  </si>
-  <si>
     <t>spring.datasource.url=jdbc:mysql://localhost:3306/telcomksh?serverTimezone=GMT&amp;useUnicode=true&amp;characterEncoding=utf-8&amp;useSSL=false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/usr/local/telecom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>java -jar ****</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,15 +193,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BASE_API: '"http://192.168.1.106:8080"'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://git.coding.net/myhomeCode/telecomfront.git   master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://git.coding.net/myhomeCode/telecomback.git  public</t>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbroot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbpassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webroot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbsql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backuri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fronturi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_API: '"http://127.0.0.1:8080"'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring.datasource.password=password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\hbxt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -261,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,12 +374,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +400,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,7 +426,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,20 +771,20 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD49"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="48.21875" customWidth="1"/>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +798,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -742,92 +808,92 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -836,159 +902,159 @@
       <c r="D12" s="2">
         <v>0.01</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+    <row r="13" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2">
         <v>0.01</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>0.01</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>0.01</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2">
         <v>0.01</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2">
         <v>0.01</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>0.01</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>0.01</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>0.01</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0.01</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>0.01</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>0.01</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>0.01</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>0.01</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>0.01</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>0.01</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1005,110 +1071,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.625" customWidth="1"/>
+    <col min="3" max="3" width="134.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
       <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1126,7 +1241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,7 +1254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1152,7 +1267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
